--- a/Data/Situation2024/OPEX.xlsx
+++ b/Data/Situation2024/OPEX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/Situation2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{62F7584F-92F1-43AB-8684-75104CC73B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3113FFBB-EB78-49E9-BF1A-96882E403883}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{62F7584F-92F1-43AB-8684-75104CC73B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16F7F8F8-3494-44F8-8546-C65BD1DC03D8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A6326503-DCBD-45B8-99ED-538B88B01DFC}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,14 +689,14 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>25.5</v>
+        <v>23.8</v>
       </c>
       <c r="G4">
         <v>0.32700000000000001</v>
       </c>
       <c r="H4" s="11">
         <f>F4/G4</f>
-        <v>77.981651376146786</v>
+        <v>72.782874617737008</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -710,11 +710,11 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>81.981651376146786</v>
+        <v>76.782874617737008</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="5"/>
-        <v>81981.65137614678</v>
+        <v>76782.874617737005</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -830,14 +830,14 @@
         <v>4.5</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>0.5</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="8">
         <v>0.35799999999999998</v>
@@ -851,11 +851,11 @@
       </c>
       <c r="L7" s="9">
         <f t="shared" si="0"/>
-        <v>101.41200000000001</v>
+        <v>103.41200000000001</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="5"/>
-        <v>101412</v>
+        <v>103412</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
